--- a/src/data/Data.xlsx
+++ b/src/data/Data.xlsx
@@ -4,78 +4,178 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
     <sheet name="TestData" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
-  <si>
-    <t>LoginTest</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Runmode</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
-    <t>its.thakur@gmail.com</t>
-  </si>
-  <si>
-    <t>Ashish@123</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>ChangePasswordTest</t>
-  </si>
-  <si>
-    <t>OldPassword</t>
-  </si>
-  <si>
-    <t>NewPassword</t>
-  </si>
-  <si>
-    <t>Ashish@789</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
-    <t>ProfileTest</t>
-  </si>
-  <si>
-    <t>validateProfile</t>
-  </si>
-  <si>
-    <t>PreetiK</t>
-  </si>
-  <si>
-    <t>Happy@123</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>coded</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>balannce</t>
+  </si>
+  <si>
+    <t>Date_RowNo</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>TestCases Name</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>VerifiedPendingStatus</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CurrentDayRecord</t>
+  </si>
+  <si>
+    <t>PendingStatusVerified</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>SDH</t>
+  </si>
+  <si>
+    <t>RagunathA</t>
+  </si>
+  <si>
+    <t>PurnimaS</t>
+  </si>
+  <si>
+    <t>EditDataPendingStatus</t>
+  </si>
+  <si>
+    <t>Searching Data previous 4 ,5 or 6 days ,If idata alreadey updated and waiting for SDH Approval than login to Application with SDH and approve and login to TL and verified data should be approved Status</t>
+  </si>
+  <si>
+    <t>Desscription</t>
+  </si>
+  <si>
+    <t>Searching 4 or 5 Days Prevoius Days Records and Edit Records like received Data and saved , Verified Status Pending and login AS SDH and Approved and Verified Status Approved</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DateSelectionVerification</t>
+  </si>
+  <si>
+    <t>AccountConfiguration</t>
+  </si>
+  <si>
+    <t>VijayalaH</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>ABS -AR</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>RevenueType</t>
+  </si>
+  <si>
+    <t>No Sharing</t>
+  </si>
+  <si>
+    <t>UnitRate</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>TLConfiguration</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>RCM</t>
+  </si>
+  <si>
+    <t>NextGen RCM</t>
+  </si>
+  <si>
+    <t>BAY MEDICAL - PP</t>
+  </si>
+  <si>
+    <t>BASKARAN A</t>
+  </si>
+  <si>
+    <t>MURUGESAN S</t>
+  </si>
+  <si>
+    <t>ARJUN B</t>
+  </si>
+  <si>
+    <t>BALAJI C</t>
+  </si>
+  <si>
+    <t>BLR II</t>
   </si>
 </sst>
 </file>
@@ -126,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,6 +249,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -157,12 +268,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,53 +581,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="183.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -524,132 +682,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
+      <c r="C21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="its.thakur@gmail.com"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId1" display="Ashish@789"/>
+    <hyperlink ref="E9" r:id="rId2" display="Ashish@123"/>
+    <hyperlink ref="D13" r:id="rId3" display="Ashish@789"/>
+    <hyperlink ref="E13" r:id="rId4" display="Ashish@123"/>
+    <hyperlink ref="D17" r:id="rId5" display="Ashish@789"/>
+    <hyperlink ref="E17" r:id="rId6" display="Ashish@123"/>
+    <hyperlink ref="D3" r:id="rId7" display="Ashish@789"/>
+    <hyperlink ref="E3" r:id="rId8" display="Ashish@123"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="183.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/data/Data.xlsx
+++ b/src/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>Runmode</t>
   </si>
@@ -172,10 +172,34 @@
     <t>ARJUN B</t>
   </si>
   <si>
-    <t>BALAJI C</t>
-  </si>
-  <si>
     <t>BLR II</t>
+  </si>
+  <si>
+    <t>BALAJI R</t>
+  </si>
+  <si>
+    <t>TL1</t>
+  </si>
+  <si>
+    <t>ChangeTL</t>
+  </si>
+  <si>
+    <t>DEVI N</t>
+  </si>
+  <si>
+    <t>OperationManager</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>OperationManagerPending</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Prabahak</t>
   </si>
 </sst>
 </file>
@@ -581,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +699,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -682,10 +722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -922,12 +962,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -950,7 +990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -973,17 +1013,17 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>29</v>
@@ -1015,8 +1055,11 @@
       <c r="L26" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1048,10 +1091,91 @@
         <v>50</v>
       </c>
       <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
         <v>51</v>
       </c>
-      <c r="L27" t="s">
-        <v>52</v>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/Data.xlsx
+++ b/src/data/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Runmode</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Prabahak</t>
+  </si>
+  <si>
+    <t>LoginTL</t>
+  </si>
+  <si>
+    <t>BalajiR</t>
   </si>
 </sst>
 </file>
@@ -722,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -962,12 +968,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,7 +996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1013,12 +1019,12 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1064,11 @@
       <c r="M26" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1099,13 +1108,16 @@
       <c r="M27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>

--- a/src/data/Data.xlsx
+++ b/src/data/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>Runmode</t>
   </si>
@@ -206,6 +206,36 @@
   </si>
   <si>
     <t>BalajiR</t>
+  </si>
+  <si>
+    <t>Welcome RAGUNATH A</t>
+  </si>
+  <si>
+    <t>OMUser</t>
+  </si>
+  <si>
+    <t>AdminUser</t>
+  </si>
+  <si>
+    <t>TLUser</t>
+  </si>
+  <si>
+    <t>SDHUser</t>
+  </si>
+  <si>
+    <t>Welcome Vijayalakshmi Hanumantha</t>
+  </si>
+  <si>
+    <t>Welcome PRABAHARAN C K</t>
+  </si>
+  <si>
+    <t>Welcome PURNIMA S</t>
+  </si>
+  <si>
+    <t>SDHAPPROVAL</t>
+  </si>
+  <si>
+    <t>OM1</t>
   </si>
 </sst>
 </file>
@@ -611,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +751,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -728,10 +766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="O26" sqref="O26:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,16 +780,18 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -794,18 +834,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -860,12 +900,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -894,7 +934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -920,60 +960,81 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1">
-        <v>50</v>
-      </c>
-      <c r="G17">
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -995,8 +1056,14 @@
       <c r="G21" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1018,13 +1085,19 @@
       <c r="G22">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1067,8 +1140,11 @@
       <c r="N26" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1111,13 +1187,16 @@
       <c r="N27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1212,14 @@
       <c r="E30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1150,13 +1235,19 @@
       <c r="E31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +1263,14 @@
       <c r="E34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1188,6 +1285,57 @@
       </c>
       <c r="E35" t="s">
         <v>60</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
+        <v>13</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1196,13 +1344,11 @@
     <hyperlink ref="E9" r:id="rId2" display="Ashish@123"/>
     <hyperlink ref="D13" r:id="rId3" display="Ashish@789"/>
     <hyperlink ref="E13" r:id="rId4" display="Ashish@123"/>
-    <hyperlink ref="D17" r:id="rId5" display="Ashish@789"/>
-    <hyperlink ref="E17" r:id="rId6" display="Ashish@123"/>
-    <hyperlink ref="D3" r:id="rId7" display="Ashish@789"/>
-    <hyperlink ref="E3" r:id="rId8" display="Ashish@123"/>
+    <hyperlink ref="D3" r:id="rId5" display="Ashish@789"/>
+    <hyperlink ref="E3" r:id="rId6" display="Ashish@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/src/data/Data.xlsx
+++ b/src/data/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
   <si>
     <t>Runmode</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>OM1</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Discard</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -769,7 +778,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26:O27"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,12 +795,12 @@
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -834,18 +843,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -900,12 +909,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -960,12 +969,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -996,13 +1005,22 @@
       <c r="J16" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="K16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
-        <v>13</v>
+      <c r="B17" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>19</v>
@@ -1027,6 +1045,15 @@
       </c>
       <c r="J17" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">

--- a/src/data/Data.xlsx
+++ b/src/data/Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
   <si>
     <t>Runmode</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>70</t>
+  </si>
+  <si>
+    <t>RAI-Denial Review</t>
+  </si>
+  <si>
+    <t>McKesson PD</t>
+  </si>
+  <si>
+    <t>Charsleston - PATH</t>
   </si>
 </sst>
 </file>
@@ -775,10 +784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,14 +802,15 @@
     <col min="8" max="8" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -843,18 +853,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -909,12 +919,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -969,12 +979,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1014,8 +1024,17 @@
       <c r="M16" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1047,21 +1066,30 @@
         <v>70</v>
       </c>
       <c r="K17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1119,12 +1147,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1218,12 +1246,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
